--- a/assets/excel/Leave_form.xlsx
+++ b/assets/excel/Leave_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\htdocs\freelance\erms\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579BE4DB-88DC-4BEA-911D-268D884ECE9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A6BEA9-506A-48EF-BC4B-5E840EBEAE3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{D1B62B83-5607-49AE-B8E6-6220A10D9A45}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D1B62B83-5607-49AE-B8E6-6220A10D9A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -117,12 +117,6 @@
     <t>6. D) Commutation</t>
   </si>
   <si>
-    <t xml:space="preserve">            Requested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Not Requested</t>
-  </si>
-  <si>
     <t>Inclusive Dates</t>
   </si>
   <si>
@@ -183,12 +177,6 @@
     <t>PHRMO in charge of Personnel Official Records</t>
   </si>
   <si>
-    <t>GRACE M. KIDANG-FLORES</t>
-  </si>
-  <si>
-    <t>Provicial Human Resource Management Officer</t>
-  </si>
-  <si>
     <t>(Authorized Official)</t>
   </si>
   <si>
@@ -199,13 +187,34 @@
   </si>
   <si>
     <t>Days without pay</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Requested</t>
+  </si>
+  <si>
+    <t>Not Requested</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>______________________________________________________________________</t>
+  </si>
+  <si>
+    <t>________________________________________________________________________________________</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +252,14 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -392,11 +409,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -415,25 +458,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -441,21 +474,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,8 +519,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,798 +625,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F777E586-FF0C-4768-9DD6-3B4E3DEC005E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3846195" y="2697480"/>
-          <a:ext cx="411480" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A3BD42-3B81-4D62-85F4-188894CDB4E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="371475" y="2619375"/>
-          <a:ext cx="400050" cy="154305"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA31E18-C482-4645-8B57-A7E103A72EBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="369570" y="2617470"/>
-          <a:ext cx="400050" cy="156210"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>177165</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>577215</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978C17B8-A455-4BD6-9B62-1CECF0BCAE65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="367665" y="3331845"/>
-          <a:ext cx="400050" cy="156210"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>173355</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5294713-7F8C-4514-8781-81AA0F67B990}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="363855" y="3516630"/>
-          <a:ext cx="405765" cy="148590"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64ED202-5D8F-401D-8FB5-06B7D11F6CDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="360045" y="3693795"/>
-          <a:ext cx="411480" cy="156210"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>588645</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE0EA46-6E4D-4999-9271-3B50D90D54E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2202180" y="3697605"/>
-          <a:ext cx="405765" cy="148590"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7773D062-8CD0-4309-8181-2B473C8A6FE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2198370" y="3874770"/>
-          <a:ext cx="411480" cy="156210"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>592455</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97316C25-FA8A-4039-845A-DBA24FB41829}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2202180" y="4059555"/>
-          <a:ext cx="409575" cy="148590"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>592455</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DC4C6A-1B0E-459D-ADC5-BAFD4AD28AFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3850005" y="2872740"/>
-          <a:ext cx="409575" cy="158115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>592455</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375CA0C-CD38-4CB2-8142-180DE2E6DE6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3836670" y="6408420"/>
-          <a:ext cx="422910" cy="163830"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>177165</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>592455</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02632B3-1DE2-4C75-A097-6C61139DD5B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3844290" y="6869430"/>
-          <a:ext cx="415290" cy="160020"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1653,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1E6EB4-7F7D-41B1-98BB-268CB0EEDFC5}">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="J22" sqref="J22:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,128 +944,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
     </row>
     <row r="8" spans="1:20" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1870,7 +1144,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-      <c r="T11" s="27"/>
+      <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
@@ -1889,22 +1163,22 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="41"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1925,10 +1199,14 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="R14" s="25"/>
+      <c r="R14" s="21"/>
+      <c r="T14" s="21"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
+      <c r="B15" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1949,6 +1227,9 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
+      <c r="C16" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1956,7 +1237,9 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="26"/>
+      <c r="I16" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="J16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1968,6 +1251,9 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
+      <c r="C17" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1975,7 +1261,9 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="J17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2003,6 +1291,9 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
+      <c r="B19" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2022,15 +1313,20 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
+      <c r="B20" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="J20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2041,12 +1337,18 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
+      <c r="B21" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="2"/>
@@ -2061,34 +1363,42 @@
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="F22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="J22" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="21"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="F23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,24 +1446,28 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="3"/>
+      <c r="I26" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="18"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="9"/>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
@@ -2167,7 +1481,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="13"/>
@@ -2225,11 +1539,11 @@
       <c r="G31" s="10"/>
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
+      <c r="J31" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
       <c r="M31" s="9"/>
       <c r="N31" s="10"/>
     </row>
@@ -2250,26 +1564,26 @@
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="38"/>
+      <c r="A33" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2278,7 +1592,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
       <c r="H34" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -2289,7 +1603,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2321,47 +1635,49 @@
       <c r="M36" s="3"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="21"/>
+      <c r="D37" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="18"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="18" t="s">
-        <v>35</v>
+      <c r="I37" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="21"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="18"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="I38" s="23"/>
+      <c r="J38" s="16"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -2369,50 +1685,56 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="21"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="I39" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="21"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="2"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2424,16 +1746,19 @@
       <c r="F42" s="3"/>
       <c r="G42" s="4"/>
       <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="4"/>
       <c r="H43" s="2"/>
@@ -2441,124 +1766,128 @@
     </row>
     <row r="44" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="3"/>
       <c r="G44" s="4"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
       <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
+      <c r="B45" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="4"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="3"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="I47" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="4"/>
+    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="I48" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="13"/>
+      <c r="I49" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
       <c r="N49" s="4"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -2581,16 +1910,14 @@
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="4"/>
@@ -2599,17 +1926,15 @@
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="4"/>
     </row>
@@ -2617,17 +1942,15 @@
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="17"/>
       <c r="M54" s="3"/>
       <c r="N54" s="4"/>
     </row>
@@ -2636,29 +1959,29 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="E55" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="4"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -2666,57 +1989,79 @@
       <c r="N56" s="4"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="10"/>
+      <c r="A57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="4"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="10"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="J40:M41"/>
     <mergeCell ref="I44:M44"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="J22:M23"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="I49:M50"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
